--- a/Calculs/DataBase_PH2_FileA_MidStrip_V1.xlsx
+++ b/Calculs/DataBase_PH2_FileA_MidStrip_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{67FDEBD5-4EF1-4723-A295-0FDCCD9F52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B75EC7A-B899-4526-B38D-4167D535A678}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{67FDEBD5-4EF1-4723-A295-0FDCCD9F52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3247B98-3C6A-4525-BA7E-3F2F5F288398}"/>
   <bookViews>
-    <workbookView xWindow="42795" yWindow="1605" windowWidth="19515" windowHeight="20400" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="39555" yWindow="195" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="45">
   <si>
     <t>fck</t>
   </si>
@@ -733,6 +733,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1050,11 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z53" sqref="Z53:Z54"/>
+      <selection pane="topRight" activeCell="A49" activeCellId="3" sqref="A13:XFD13 A25:XFD25 A37:XFD37 A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,11 +1220,11 @@
         <v>0</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" ref="X2:X23" si="0">U2*(1-W2)</f>
+        <f t="shared" ref="X2:X22" si="0">U2*(1-W2)</f>
         <v>57.006079999999997</v>
       </c>
       <c r="Y2" s="2">
-        <f t="shared" ref="Y2:Y23" si="1">U2*W2 + V2</f>
+        <f t="shared" ref="Y2:Y22" si="1">U2*W2 + V2</f>
         <v>17.315839999999998</v>
       </c>
       <c r="Z2" s="4">
@@ -1228,15 +1232,15 @@
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB23" si="2">X2+Y2</f>
+        <f t="shared" ref="AB2:AB22" si="2">X2+Y2</f>
         <v>74.321919999999992</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1324,8 +1328,8 @@
       <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1413,8 +1417,8 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1502,8 +1506,8 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1591,8 +1595,8 @@
       <c r="AM6" s="2"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1679,8 +1683,8 @@
       <c r="AL7" s="2"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1768,8 +1772,8 @@
       <c r="AM8" s="2"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
+      <c r="A9" t="s">
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1856,8 +1860,8 @@
       <c r="AL9" s="2"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1945,8 +1949,8 @@
       <c r="AM10" s="2"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -2034,8 +2038,8 @@
       <c r="AM11" s="2"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
+      <c r="A12" t="s">
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -2122,11 +2126,11 @@
       <c r="AL12" s="2"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -2150,16 +2154,16 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.3621000000000002E-3</v>
       </c>
       <c r="M13">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2183,29 +2187,29 @@
         <v>1</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>48.755200000000002</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>14.8096</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48.755200000000002</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.8096</v>
       </c>
       <c r="Z13" s="4">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63.564800000000005</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -2215,7 +2219,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -2239,16 +2243,16 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="K14">
         <v>5.3</v>
       </c>
       <c r="L14">
-        <v>1.3621000000000002E-3</v>
+        <v>1.0240000000000001E-4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2263,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2272,39 +2276,39 @@
         <v>1</v>
       </c>
       <c r="U14" s="2">
-        <v>48.755200000000002</v>
+        <v>48.344999999999999</v>
       </c>
       <c r="V14" s="2">
-        <v>14.8096</v>
+        <v>14.684999999999999</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="0"/>
-        <v>48.755200000000002</v>
+        <v>48.344999999999999</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>14.8096</v>
+        <v>14.684999999999999</v>
       </c>
       <c r="Z14" s="4">
-        <v>83.2</v>
+        <v>82.5</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>63.564800000000005</v>
+        <v>63.03</v>
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>25</v>
@@ -2328,16 +2332,16 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="K15">
         <v>5.3</v>
       </c>
       <c r="L15">
-        <v>1.0240000000000001E-4</v>
+        <v>2.7189000000000002E-3</v>
       </c>
       <c r="M15">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2352,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>4.8000000000000001E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2361,39 +2365,38 @@
         <v>1</v>
       </c>
       <c r="U15" s="2">
-        <v>48.344999999999999</v>
+        <v>111.01183999999999</v>
       </c>
       <c r="V15" s="2">
-        <v>14.684999999999999</v>
+        <v>33.720320000000001</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="0"/>
-        <v>48.344999999999999</v>
+        <v>111.01183999999999</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>14.684999999999999</v>
+        <v>33.720320000000001</v>
       </c>
       <c r="Z15" s="4">
-        <v>82.5</v>
+        <v>189.44</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15">
         <f t="shared" si="2"/>
-        <v>63.03</v>
+        <v>144.73215999999999</v>
       </c>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -2417,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
         <v>5.3</v>
       </c>
       <c r="L16">
-        <v>2.7189000000000002E-3</v>
+        <v>1.3440000000000001E-4</v>
       </c>
       <c r="M16">
         <v>0.04</v>
@@ -2441,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2.8800000000000001E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2450,38 +2453,38 @@
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>111.01183999999999</v>
+        <v>45.122</v>
       </c>
       <c r="V16" s="2">
-        <v>33.720320000000001</v>
+        <v>13.706</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="0"/>
-        <v>111.01183999999999</v>
+        <v>45.122</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>33.720320000000001</v>
+        <v>13.706</v>
       </c>
       <c r="Z16" s="4">
-        <v>189.44</v>
+        <v>77</v>
       </c>
       <c r="AA16" s="4"/>
       <c r="AB16">
         <f t="shared" si="2"/>
-        <v>144.73215999999999</v>
+        <v>58.828000000000003</v>
       </c>
       <c r="AL16" s="2"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
+      <c r="A17" t="s">
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -2505,13 +2508,13 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="K17">
         <v>5.3</v>
       </c>
       <c r="L17">
-        <v>1.3440000000000001E-4</v>
+        <v>6.7840000000000001E-4</v>
       </c>
       <c r="M17">
         <v>0.04</v>
@@ -2529,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2538,38 +2541,38 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>45.122</v>
-      </c>
-      <c r="V17" s="2">
-        <v>13.706</v>
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="V17">
+        <v>0.22783999999999999</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="0"/>
-        <v>45.122</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>13.706</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="Z17" s="4">
-        <v>77</v>
+        <v>1.28</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17">
         <f t="shared" si="2"/>
-        <v>58.828000000000003</v>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
+      <c r="A18" t="s">
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -2593,16 +2596,16 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="K18">
         <v>5.3</v>
       </c>
       <c r="L18">
-        <v>6.7840000000000001E-4</v>
+        <v>1.3440000000000001E-4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2626,38 +2629,38 @@
         <v>1</v>
       </c>
       <c r="U18" s="2">
-        <v>0.75007999999999997</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="V18">
-        <v>0.22783999999999999</v>
+        <v>0.1958</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="0"/>
-        <v>0.75007999999999997</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>0.22783999999999999</v>
+        <v>0.1958</v>
       </c>
       <c r="Z18" s="4">
-        <v>1.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA18" s="4"/>
       <c r="AB18">
         <f t="shared" si="2"/>
-        <v>0.9779199999999999</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
+      <c r="A19" t="s">
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>25</v>
@@ -2681,16 +2684,16 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="K19">
         <v>5.3</v>
       </c>
       <c r="L19">
-        <v>1.3440000000000001E-4</v>
+        <v>6.7840000000000001E-4</v>
       </c>
       <c r="M19">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2714,38 +2717,38 @@
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <v>0.64460000000000006</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="V19">
-        <v>0.1958</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="0"/>
-        <v>0.64460000000000006</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>0.1958</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="Z19" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="AA19" s="4"/>
       <c r="AB19">
         <f t="shared" si="2"/>
-        <v>0.84040000000000004</v>
+        <v>0.9779199999999999</v>
       </c>
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
+      <c r="A20" t="s">
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -2769,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
         <v>5.3</v>
       </c>
       <c r="L20">
-        <v>6.7840000000000001E-4</v>
+        <v>1.8559999999999998E-4</v>
       </c>
       <c r="M20">
         <v>0.04</v>
@@ -2793,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2802,38 +2805,38 @@
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>0.75007999999999997</v>
+        <v>41.899000000000001</v>
       </c>
       <c r="V20">
-        <v>0.22783999999999999</v>
+        <v>12.726999999999999</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="0"/>
-        <v>0.75007999999999997</v>
+        <v>41.899000000000001</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>0.22783999999999999</v>
+        <v>12.726999999999999</v>
       </c>
       <c r="Z20" s="4">
-        <v>1.28</v>
+        <v>71.5</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20">
         <f t="shared" si="2"/>
-        <v>0.9779199999999999</v>
+        <v>54.625999999999998</v>
       </c>
       <c r="AL20" s="2"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
+      <c r="A21" t="s">
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -2857,13 +2860,13 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="K21">
         <v>5.3</v>
       </c>
       <c r="L21">
-        <v>1.8559999999999998E-4</v>
+        <v>1.3568E-3</v>
       </c>
       <c r="M21">
         <v>0.04</v>
@@ -2881,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>4.8000000000000001E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2890,38 +2893,38 @@
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <v>41.899000000000001</v>
+        <v>63.756799999999991</v>
       </c>
       <c r="V21">
-        <v>12.726999999999999</v>
+        <v>19.366399999999999</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="0"/>
-        <v>41.899000000000001</v>
+        <v>63.756799999999991</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>12.726999999999999</v>
+        <v>19.366399999999999</v>
       </c>
       <c r="Z21" s="4">
-        <v>71.5</v>
+        <v>108.8</v>
       </c>
       <c r="AA21" s="4"/>
       <c r="AB21">
         <f t="shared" si="2"/>
-        <v>54.625999999999998</v>
+        <v>83.123199999999997</v>
       </c>
       <c r="AL21" s="2"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -2945,16 +2948,16 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="K22">
         <v>5.3</v>
       </c>
       <c r="L22">
-        <v>1.3568E-3</v>
+        <v>1.0240000000000001E-4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2969,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>2.8800000000000001E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2978,38 +2981,38 @@
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <v>63.756799999999991</v>
+        <v>41.254400000000004</v>
       </c>
       <c r="V22">
-        <v>19.366399999999999</v>
+        <v>12.5312</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="0"/>
-        <v>63.756799999999991</v>
+        <v>41.254400000000004</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>19.366399999999999</v>
+        <v>12.5312</v>
       </c>
       <c r="Z22" s="4">
-        <v>108.8</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AA22" s="4"/>
       <c r="AB22">
         <f t="shared" si="2"/>
-        <v>83.123199999999997</v>
+        <v>53.785600000000002</v>
       </c>
       <c r="AL22" s="2"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -3020,7 +3023,7 @@
       <c r="E23">
         <v>500</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>170000</v>
       </c>
       <c r="G23">
@@ -3033,16 +3036,16 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K23">
         <v>5.3</v>
       </c>
       <c r="L23">
-        <v>1.0240000000000001E-4</v>
+        <v>1.3621000000000002E-3</v>
       </c>
       <c r="M23">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -3057,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3066,38 +3069,37 @@
         <v>1</v>
       </c>
       <c r="U23" s="2">
-        <v>41.254400000000004</v>
+        <v>52.505600000000001</v>
       </c>
       <c r="V23">
-        <v>12.5312</v>
-      </c>
-      <c r="W23" s="3">
+        <v>15.9488</v>
+      </c>
+      <c r="W23" s="5">
         <v>0</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="0"/>
-        <v>41.254400000000004</v>
+        <f t="shared" ref="X23:X48" si="3">U23*(1-W23)</f>
+        <v>52.505600000000001</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="1"/>
-        <v>12.5312</v>
+        <f t="shared" ref="Y23:Y48" si="4">U23*W23 + V23</f>
+        <v>15.9488</v>
       </c>
       <c r="Z23" s="4">
-        <v>70.400000000000006</v>
+        <v>89.600000000000009</v>
       </c>
       <c r="AA23" s="4"/>
       <c r="AB23">
-        <f t="shared" si="2"/>
-        <v>53.785600000000002</v>
-      </c>
-      <c r="AL23" s="2"/>
+        <f t="shared" ref="AB23:AB48" si="5">X23+Y23</f>
+        <v>68.454400000000007</v>
+      </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -3153,38 +3155,38 @@
       <c r="T24">
         <v>1</v>
       </c>
-      <c r="U24" s="2">
-        <v>52.505600000000001</v>
+      <c r="U24">
+        <v>45.754879999999993</v>
       </c>
       <c r="V24">
-        <v>15.9488</v>
+        <v>13.898239999999999</v>
       </c>
       <c r="W24" s="5">
         <v>0</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" ref="X24:X55" si="3">U24*(1-W24)</f>
-        <v>52.505600000000001</v>
+        <f t="shared" si="3"/>
+        <v>45.754879999999993</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" ref="Y24:Y55" si="4">U24*W24 + V24</f>
-        <v>15.9488</v>
+        <f t="shared" si="4"/>
+        <v>13.898239999999999</v>
       </c>
       <c r="Z24" s="4">
-        <v>89.600000000000009</v>
+        <v>78.08</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24">
-        <f t="shared" ref="AB24:AB55" si="5">X24+Y24</f>
-        <v>68.454400000000007</v>
+        <f t="shared" si="5"/>
+        <v>59.653119999999994</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -3208,16 +3210,16 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.0240000000000001E-4</v>
       </c>
       <c r="M25">
-        <v>0.01</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -3232,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3240,30 +3242,30 @@
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
+      <c r="U25">
+        <v>54.1464</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>16.447199999999999</v>
       </c>
       <c r="W25" s="5">
         <v>0</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54.1464</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.447199999999999</v>
       </c>
       <c r="Z25" s="4">
-        <v>0</v>
+        <v>92.4</v>
       </c>
       <c r="AA25" s="4"/>
       <c r="AB25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70.593599999999995</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
@@ -3271,7 +3273,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3295,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.24</v>
+        <v>0.215</v>
       </c>
       <c r="K26">
         <v>5.3</v>
       </c>
       <c r="L26">
-        <v>1.3621000000000002E-3</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="M26">
         <v>0.04</v>
@@ -3319,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3328,37 +3330,37 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>45.754879999999993</v>
+        <v>97.510400000000004</v>
       </c>
       <c r="V26">
-        <v>13.898239999999999</v>
+        <v>29.619199999999999</v>
       </c>
       <c r="W26" s="5">
         <v>0</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="3"/>
-        <v>45.754879999999993</v>
+        <v>97.510400000000004</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="4"/>
-        <v>13.898239999999999</v>
+        <v>29.619199999999999</v>
       </c>
       <c r="Z26" s="4">
-        <v>78.08</v>
+        <v>166.4</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26">
         <f t="shared" si="5"/>
-        <v>59.653119999999994</v>
+        <v>127.12960000000001</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -3382,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
         <v>5.3</v>
       </c>
       <c r="L27">
-        <v>1.0240000000000001E-4</v>
+        <v>1.3440000000000001E-4</v>
       </c>
       <c r="M27">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3415,37 +3417,37 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>54.1464</v>
+        <v>52.857199999999999</v>
       </c>
       <c r="V27">
-        <v>16.447199999999999</v>
+        <v>16.055599999999998</v>
       </c>
       <c r="W27" s="5">
         <v>0</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="3"/>
-        <v>54.1464</v>
+        <v>52.857199999999999</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="4"/>
-        <v>16.447199999999999</v>
+        <v>16.055599999999998</v>
       </c>
       <c r="Z27" s="4">
-        <v>92.4</v>
+        <v>90.2</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27">
         <f t="shared" si="5"/>
-        <v>70.593599999999995</v>
+        <v>68.912800000000004</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
+      <c r="A28" t="s">
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -3475,7 +3477,7 @@
         <v>5.3</v>
       </c>
       <c r="L28">
-        <v>2.0400000000000001E-3</v>
+        <v>6.7840000000000001E-4</v>
       </c>
       <c r="M28">
         <v>0.04</v>
@@ -3493,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>3.8400000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3502,37 +3504,37 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>97.510400000000004</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="V28">
-        <v>29.619199999999999</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="W28" s="5">
         <v>0</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="3"/>
-        <v>97.510400000000004</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="4"/>
-        <v>29.619199999999999</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="Z28" s="4">
-        <v>166.4</v>
+        <v>1.28</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28">
         <f t="shared" si="5"/>
-        <v>127.12960000000001</v>
+        <v>0.9779199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0</v>
+      <c r="A29" t="s">
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -3556,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="K29">
         <v>5.3</v>
@@ -3565,7 +3567,7 @@
         <v>1.3440000000000001E-4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -3580,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3589,37 +3591,37 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>52.857199999999999</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="V29">
-        <v>16.055599999999998</v>
+        <v>0.1958</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="3"/>
-        <v>52.857199999999999</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="4"/>
-        <v>16.055599999999998</v>
+        <v>0.1958</v>
       </c>
       <c r="Z29" s="4">
-        <v>90.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA29" s="4"/>
       <c r="AB29">
         <f t="shared" si="5"/>
-        <v>68.912800000000004</v>
+        <v>0.84040000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
+      <c r="A30" t="s">
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>25</v>
@@ -3702,11 +3704,11 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
+      <c r="A31" t="s">
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -3730,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
         <v>5.3</v>
@@ -3739,7 +3741,7 @@
         <v>1.3440000000000001E-4</v>
       </c>
       <c r="M31">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -3754,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3763,37 +3765,37 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>0.64460000000000006</v>
+        <v>34.808399999999999</v>
       </c>
       <c r="V31">
-        <v>0.1958</v>
+        <v>10.5732</v>
       </c>
       <c r="W31" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="3"/>
-        <v>0.64460000000000006</v>
+        <v>26.106299999999997</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="4"/>
-        <v>0.1958</v>
+        <v>19.275300000000001</v>
       </c>
       <c r="Z31" s="4">
-        <v>1.1000000000000001</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31">
         <f t="shared" si="5"/>
-        <v>0.84040000000000004</v>
+        <v>45.381599999999999</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
+      <c r="A32" t="s">
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -3823,7 +3825,7 @@
         <v>5.3</v>
       </c>
       <c r="L32">
-        <v>6.7840000000000001E-4</v>
+        <v>2.0405000000000002E-3</v>
       </c>
       <c r="M32">
         <v>0.04</v>
@@ -3841,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -3850,37 +3852,37 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0.75007999999999997</v>
+        <v>99.760639999999995</v>
       </c>
       <c r="V32">
-        <v>0.22783999999999999</v>
+        <v>30.302720000000001</v>
       </c>
       <c r="W32" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="3"/>
-        <v>0.75007999999999997</v>
+        <v>49.880319999999998</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="4"/>
-        <v>0.22783999999999999</v>
+        <v>80.183040000000005</v>
       </c>
       <c r="Z32" s="4">
-        <v>1.28</v>
+        <v>170.24</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32">
         <f t="shared" si="5"/>
-        <v>0.9779199999999999</v>
+        <v>130.06335999999999</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
+      <c r="A33" t="s">
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -3904,16 +3906,16 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="K33">
         <v>5.3</v>
       </c>
       <c r="L33">
-        <v>1.3440000000000001E-4</v>
+        <v>2.6659000000000001E-3</v>
       </c>
       <c r="M33">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3928,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3937,37 +3939,37 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>34.808399999999999</v>
+        <v>83.798000000000002</v>
       </c>
       <c r="V33">
-        <v>10.5732</v>
+        <v>25.453999999999997</v>
       </c>
       <c r="W33" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="3"/>
-        <v>26.106299999999997</v>
+        <v>41.899000000000001</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="4"/>
-        <v>19.275300000000001</v>
+        <v>67.352999999999994</v>
       </c>
       <c r="Z33" s="4">
-        <v>59.400000000000006</v>
+        <v>143</v>
       </c>
       <c r="AA33" s="4"/>
       <c r="AB33">
         <f t="shared" si="5"/>
-        <v>45.381599999999999</v>
+        <v>109.252</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
+      <c r="A34" t="s">
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -3991,13 +3993,13 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="K34">
         <v>5.3</v>
       </c>
       <c r="L34">
-        <v>2.0405000000000002E-3</v>
+        <v>1.3621000000000002E-3</v>
       </c>
       <c r="M34">
         <v>0.04</v>
@@ -4015,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>2.8800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4024,37 +4026,37 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <v>99.760639999999995</v>
+        <v>51.00544</v>
       </c>
       <c r="V34">
-        <v>30.302720000000001</v>
+        <v>15.493120000000001</v>
       </c>
       <c r="W34" s="5">
         <v>0.5</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="3"/>
-        <v>49.880319999999998</v>
+        <v>25.50272</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="4"/>
-        <v>80.183040000000005</v>
+        <v>40.995840000000001</v>
       </c>
       <c r="Z34" s="4">
-        <v>170.24</v>
+        <v>87.04</v>
       </c>
       <c r="AA34" s="4"/>
       <c r="AB34">
         <f t="shared" si="5"/>
-        <v>130.06335999999999</v>
+        <v>66.498559999999998</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
+      <c r="A35" t="s">
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>25</v>
@@ -4078,16 +4080,16 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K35">
         <v>5.3</v>
       </c>
       <c r="L35">
-        <v>2.6659000000000001E-3</v>
+        <v>1.3621000000000002E-3</v>
       </c>
       <c r="M35">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4111,37 +4113,37 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>83.798000000000002</v>
+        <v>49.505279999999999</v>
       </c>
       <c r="V35">
-        <v>25.453999999999997</v>
+        <v>15.03744</v>
       </c>
       <c r="W35" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="3"/>
-        <v>41.899000000000001</v>
+        <v>49.505279999999999</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="4"/>
-        <v>67.352999999999994</v>
+        <v>15.03744</v>
       </c>
       <c r="Z35" s="4">
-        <v>143</v>
+        <v>84.48</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35">
         <f t="shared" si="5"/>
-        <v>109.252</v>
+        <v>64.542720000000003</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
+      <c r="A36" t="s">
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -4165,16 +4167,16 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="K36">
         <v>5.3</v>
       </c>
       <c r="L36">
-        <v>1.3621000000000002E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M36">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4189,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4198,37 +4200,37 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <v>51.00544</v>
+        <v>47.055800000000005</v>
       </c>
       <c r="V36">
-        <v>15.493120000000001</v>
+        <v>14.293400000000002</v>
       </c>
       <c r="W36" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="3"/>
-        <v>25.50272</v>
+        <v>47.055800000000005</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="4"/>
-        <v>40.995840000000001</v>
+        <v>14.293400000000002</v>
       </c>
       <c r="Z36" s="4">
-        <v>87.04</v>
+        <v>80.300000000000011</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36">
         <f t="shared" si="5"/>
-        <v>66.498559999999998</v>
+        <v>61.34920000000001</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -4252,16 +4254,16 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.215</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="M37">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4276,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>3.8400000000000001E-4</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4285,29 +4287,29 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>93.009919999999994</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>28.25216</v>
       </c>
       <c r="W37" s="5">
         <v>0</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>93.009919999999994</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28.25216</v>
       </c>
       <c r="Z37" s="4">
-        <v>0</v>
+        <v>158.72</v>
       </c>
       <c r="AA37" s="4"/>
       <c r="AB37">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>121.26208</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -4315,7 +4317,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>25</v>
@@ -4339,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="K38">
         <v>5.3</v>
       </c>
       <c r="L38">
-        <v>1.3621000000000002E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M38">
         <v>0.04</v>
@@ -4363,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4372,37 +4374,37 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>49.505279999999999</v>
+        <v>54.791000000000004</v>
       </c>
       <c r="V38">
-        <v>15.03744</v>
+        <v>16.643000000000001</v>
       </c>
       <c r="W38" s="5">
         <v>0</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="3"/>
-        <v>49.505279999999999</v>
+        <v>54.791000000000004</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="4"/>
-        <v>15.03744</v>
+        <v>16.643000000000001</v>
       </c>
       <c r="Z38" s="4">
-        <v>84.48</v>
+        <v>93.500000000000014</v>
       </c>
       <c r="AA38" s="4"/>
       <c r="AB38">
         <f t="shared" si="5"/>
-        <v>64.542720000000003</v>
+        <v>71.433999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
+      <c r="A39" t="s">
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>25</v>
@@ -4426,16 +4428,16 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="K39">
         <v>5.3</v>
       </c>
       <c r="L39">
-        <v>1E-4</v>
+        <v>6.7840000000000001E-4</v>
       </c>
       <c r="M39">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4450,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4459,37 +4461,37 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <v>47.055800000000005</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="V39">
-        <v>14.293400000000002</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="W39" s="5">
         <v>0</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="3"/>
-        <v>47.055800000000005</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="4"/>
-        <v>14.293400000000002</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="Z39" s="4">
-        <v>80.300000000000011</v>
+        <v>1.28</v>
       </c>
       <c r="AA39" s="4"/>
       <c r="AB39">
         <f t="shared" si="5"/>
-        <v>61.34920000000001</v>
+        <v>0.9779199999999999</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
+      <c r="A40" t="s">
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -4513,16 +4515,16 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="K40">
         <v>5.3</v>
       </c>
       <c r="L40">
-        <v>2.0400000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M40">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4537,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="R40">
-        <v>3.8400000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -4546,37 +4548,37 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>93.009919999999994</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="V40">
-        <v>28.25216</v>
+        <v>0.1958</v>
       </c>
       <c r="W40" s="5">
         <v>0</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="3"/>
-        <v>93.009919999999994</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="4"/>
-        <v>28.25216</v>
+        <v>0.1958</v>
       </c>
       <c r="Z40" s="4">
-        <v>158.72</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA40" s="4"/>
       <c r="AB40">
         <f t="shared" si="5"/>
-        <v>121.26208</v>
+        <v>0.84040000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
+      <c r="A41" t="s">
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -4600,13 +4602,13 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="K41">
         <v>5.3</v>
       </c>
       <c r="L41">
-        <v>1E-4</v>
+        <v>6.7840000000000001E-4</v>
       </c>
       <c r="M41">
         <v>0.04</v>
@@ -4624,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4633,37 +4635,37 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <v>54.791000000000004</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="V41">
-        <v>16.643000000000001</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="W41" s="5">
         <v>0</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="3"/>
-        <v>54.791000000000004</v>
+        <v>0.75007999999999997</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="4"/>
-        <v>16.643000000000001</v>
+        <v>0.22783999999999999</v>
       </c>
       <c r="Z41" s="4">
-        <v>93.500000000000014</v>
+        <v>1.28</v>
       </c>
       <c r="AA41" s="4"/>
       <c r="AB41">
         <f t="shared" si="5"/>
-        <v>71.433999999999997</v>
+        <v>0.9779199999999999</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
+      <c r="A42" t="s">
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>25</v>
@@ -4687,13 +4689,13 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="K42">
         <v>5.3</v>
       </c>
       <c r="L42">
-        <v>6.7840000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="M42">
         <v>0.04</v>
@@ -4711,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4720,37 +4722,37 @@
         <v>1</v>
       </c>
       <c r="U42">
-        <v>0.75007999999999997</v>
+        <v>61.237000000000002</v>
       </c>
       <c r="V42">
-        <v>0.22783999999999999</v>
+        <v>18.601000000000003</v>
       </c>
       <c r="W42" s="5">
         <v>0</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="3"/>
-        <v>0.75007999999999997</v>
+        <v>61.237000000000002</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="4"/>
-        <v>0.22783999999999999</v>
+        <v>18.601000000000003</v>
       </c>
       <c r="Z42" s="4">
-        <v>1.28</v>
+        <v>104.50000000000001</v>
       </c>
       <c r="AA42" s="4"/>
       <c r="AB42">
         <f t="shared" si="5"/>
-        <v>0.9779199999999999</v>
+        <v>79.838000000000008</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>25</v>
@@ -4774,16 +4776,16 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="K43">
         <v>5.3</v>
       </c>
       <c r="L43">
-        <v>1E-4</v>
+        <v>2.0405000000000002E-3</v>
       </c>
       <c r="M43">
-        <v>6.9999999999999993E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4798,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4807,37 +4809,37 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <v>0.64460000000000006</v>
+        <v>93.759999999999991</v>
       </c>
       <c r="V43">
-        <v>0.1958</v>
+        <v>28.479999999999997</v>
       </c>
       <c r="W43" s="5">
         <v>0</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="3"/>
-        <v>0.64460000000000006</v>
+        <v>93.759999999999991</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="4"/>
-        <v>0.1958</v>
+        <v>28.479999999999997</v>
       </c>
       <c r="Z43" s="4">
-        <v>1.1000000000000001</v>
+        <v>160</v>
       </c>
       <c r="AA43" s="4"/>
       <c r="AB43">
         <f t="shared" si="5"/>
-        <v>0.84040000000000004</v>
+        <v>122.23999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0</v>
+      <c r="A44" t="s">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>25</v>
@@ -4861,16 +4863,16 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="K44">
         <v>5.3</v>
       </c>
       <c r="L44">
-        <v>6.7840000000000001E-4</v>
+        <v>2.6700000000000001E-3</v>
       </c>
       <c r="M44">
-        <v>0.04</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -4894,37 +4896,37 @@
         <v>1</v>
       </c>
       <c r="U44">
-        <v>0.75007999999999997</v>
+        <v>90.244</v>
       </c>
       <c r="V44">
-        <v>0.22783999999999999</v>
+        <v>27.411999999999999</v>
       </c>
       <c r="W44" s="5">
         <v>0</v>
       </c>
       <c r="X44" s="2">
         <f t="shared" si="3"/>
-        <v>0.75007999999999997</v>
+        <v>90.244</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="4"/>
-        <v>0.22783999999999999</v>
+        <v>27.411999999999999</v>
       </c>
       <c r="Z44" s="4">
-        <v>1.28</v>
+        <v>154</v>
       </c>
       <c r="AA44" s="4"/>
       <c r="AB44">
         <f t="shared" si="5"/>
-        <v>0.9779199999999999</v>
+        <v>117.65600000000001</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0</v>
+      <c r="A45" t="s">
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>25</v>
@@ -4948,13 +4950,13 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="K45">
         <v>5.3</v>
       </c>
       <c r="L45">
-        <v>1E-4</v>
+        <v>1.3621000000000002E-3</v>
       </c>
       <c r="M45">
         <v>0.04</v>
@@ -4972,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="R45">
-        <v>4.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4981,37 +4983,37 @@
         <v>1</v>
       </c>
       <c r="U45">
-        <v>61.237000000000002</v>
+        <v>7.5007999999999999</v>
       </c>
       <c r="V45">
-        <v>18.601000000000003</v>
+        <v>2.2784</v>
       </c>
       <c r="W45" s="5">
         <v>0</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="3"/>
-        <v>61.237000000000002</v>
+        <v>7.5007999999999999</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="4"/>
-        <v>18.601000000000003</v>
+        <v>2.2784</v>
       </c>
       <c r="Z45" s="4">
-        <v>104.50000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AA45" s="4"/>
       <c r="AB45">
         <f t="shared" si="5"/>
-        <v>79.838000000000008</v>
+        <v>9.7791999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
+      <c r="A46" t="s">
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>25</v>
@@ -5035,13 +5037,13 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0.215</v>
+        <v>0.24</v>
       </c>
       <c r="K46">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="L46">
-        <v>2.0405000000000002E-3</v>
+        <v>1.3490000000000002E-3</v>
       </c>
       <c r="M46">
         <v>0.04</v>
@@ -5068,37 +5070,37 @@
         <v>1</v>
       </c>
       <c r="U46">
-        <v>93.759999999999991</v>
+        <v>60.006399999999999</v>
       </c>
       <c r="V46">
-        <v>28.479999999999997</v>
+        <v>18.2272</v>
       </c>
       <c r="W46" s="5">
         <v>0</v>
       </c>
       <c r="X46" s="2">
         <f t="shared" si="3"/>
-        <v>93.759999999999991</v>
+        <v>60.006399999999999</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="4"/>
-        <v>28.479999999999997</v>
+        <v>18.2272</v>
       </c>
       <c r="Z46" s="4">
-        <v>160</v>
+        <v>102.4</v>
       </c>
       <c r="AA46" s="4"/>
       <c r="AB46">
         <f t="shared" si="5"/>
-        <v>122.23999999999998</v>
+        <v>78.233599999999996</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
+      <c r="A47" t="s">
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C47">
         <v>25</v>
@@ -5125,10 +5127,10 @@
         <v>0.23</v>
       </c>
       <c r="K47">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="L47">
-        <v>2.6700000000000001E-3</v>
+        <v>1.0240000000000001E-4</v>
       </c>
       <c r="M47">
         <v>6.9999999999999993E-2</v>
@@ -5146,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5155,37 +5157,37 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <v>90.244</v>
+        <v>29.007000000000001</v>
       </c>
       <c r="V47">
-        <v>27.411999999999999</v>
+        <v>8.8110000000000017</v>
       </c>
       <c r="W47" s="5">
         <v>0</v>
       </c>
       <c r="X47" s="2">
         <f t="shared" si="3"/>
-        <v>90.244</v>
+        <v>29.007000000000001</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="4"/>
-        <v>27.411999999999999</v>
+        <v>8.8110000000000017</v>
       </c>
       <c r="Z47" s="4">
-        <v>154</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="AA47" s="4"/>
       <c r="AB47">
         <f t="shared" si="5"/>
-        <v>117.65600000000001</v>
+        <v>37.818000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0</v>
+      <c r="A48" t="s">
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>25</v>
@@ -5209,16 +5211,16 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>0.24</v>
+        <v>0.215</v>
       </c>
       <c r="K48">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="L48">
-        <v>1.3621000000000002E-3</v>
+        <v>2.02125E-3</v>
       </c>
       <c r="M48">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5233,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -5242,399 +5244,51 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>7.5007999999999999</v>
+        <v>93.759999999999991</v>
       </c>
       <c r="V48">
-        <v>2.2784</v>
+        <v>28.479999999999997</v>
       </c>
       <c r="W48" s="5">
         <v>0</v>
       </c>
       <c r="X48" s="2">
         <f t="shared" si="3"/>
-        <v>7.5007999999999999</v>
+        <v>93.759999999999991</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="4"/>
-        <v>2.2784</v>
+        <v>28.479999999999997</v>
       </c>
       <c r="Z48" s="4">
-        <v>12.8</v>
+        <v>160</v>
       </c>
       <c r="AA48" s="4"/>
       <c r="AB48">
         <f t="shared" si="5"/>
-        <v>9.7791999999999994</v>
+        <v>122.23999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49">
-        <v>500</v>
-      </c>
-      <c r="F49">
-        <v>170000</v>
-      </c>
-      <c r="G49">
-        <v>1300</v>
-      </c>
-      <c r="H49">
-        <v>1445</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0.01</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49" s="5">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="4">
-        <v>0</v>
-      </c>
+    <row r="49" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W49" s="5"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-      <c r="AB49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50">
-        <v>500</v>
-      </c>
-      <c r="F50">
-        <v>170000</v>
-      </c>
-      <c r="G50">
-        <v>1300</v>
-      </c>
-      <c r="H50">
-        <v>1445</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>0.24</v>
-      </c>
-      <c r="K50">
-        <v>5.25</v>
-      </c>
-      <c r="L50">
-        <v>1.3490000000000002E-3</v>
-      </c>
-      <c r="M50">
-        <v>0.04</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>2.8800000000000001E-4</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <v>60.006399999999999</v>
-      </c>
-      <c r="V50">
-        <v>18.2272</v>
-      </c>
-      <c r="W50" s="5">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <f t="shared" si="3"/>
-        <v>60.006399999999999</v>
-      </c>
-      <c r="Y50" s="2">
-        <f t="shared" si="4"/>
-        <v>18.2272</v>
-      </c>
-      <c r="Z50" s="4">
-        <v>102.4</v>
-      </c>
+    <row r="50" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W50" s="5"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-      <c r="AB50">
-        <f t="shared" si="5"/>
-        <v>78.233599999999996</v>
-      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51">
-        <v>500</v>
-      </c>
-      <c r="F51">
-        <v>170000</v>
-      </c>
-      <c r="G51">
-        <v>1300</v>
-      </c>
-      <c r="H51">
-        <v>1445</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0.23</v>
-      </c>
-      <c r="K51">
-        <v>5.25</v>
-      </c>
-      <c r="L51">
-        <v>1.0240000000000001E-4</v>
-      </c>
-      <c r="M51">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="R51">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>29.007000000000001</v>
-      </c>
-      <c r="V51">
-        <v>8.8110000000000017</v>
-      </c>
-      <c r="W51" s="5">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2">
-        <f t="shared" si="3"/>
-        <v>29.007000000000001</v>
-      </c>
-      <c r="Y51" s="2">
-        <f t="shared" si="4"/>
-        <v>8.8110000000000017</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>49.500000000000007</v>
-      </c>
+    <row r="51" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W51" s="5"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-      <c r="AB51">
-        <f t="shared" si="5"/>
-        <v>37.818000000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52">
-        <v>500</v>
-      </c>
-      <c r="F52">
-        <v>170000</v>
-      </c>
-      <c r="G52">
-        <v>1300</v>
-      </c>
-      <c r="H52">
-        <v>1445</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0.215</v>
-      </c>
-      <c r="K52">
-        <v>5.25</v>
-      </c>
-      <c r="L52">
-        <v>2.02125E-3</v>
-      </c>
-      <c r="M52">
-        <v>0.05</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>2.8800000000000001E-4</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>93.759999999999991</v>
-      </c>
-      <c r="V52">
-        <v>28.479999999999997</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0</v>
-      </c>
-      <c r="X52" s="2">
-        <f t="shared" si="3"/>
-        <v>93.759999999999991</v>
-      </c>
-      <c r="Y52" s="2">
-        <f t="shared" si="4"/>
-        <v>28.479999999999997</v>
-      </c>
-      <c r="Z52" s="4">
-        <v>160</v>
-      </c>
-      <c r="AA52" s="4"/>
-      <c r="AB52">
-        <f t="shared" si="5"/>
-        <v>122.23999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W53" s="5"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W54" s="5"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W55" s="5"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
